--- a/app/static/upload/excel_re/re_ori/ori_reverse.xlsx
+++ b/app/static/upload/excel_re/re_ori/ori_reverse.xlsx
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
         <v>12</v>
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28" t="n">
         <v>12</v>
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E41" t="n">
         <v>12</v>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E65" t="n">
         <v>12</v>
@@ -6450,7 +6450,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E85" t="n">
         <v>12</v>
@@ -7089,7 +7089,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E94" t="n">
         <v>12</v>
@@ -7373,7 +7373,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E98" t="n">
         <v>12</v>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E101" t="n">
         <v>12</v>

--- a/app/static/upload/excel_re/re_ori/ori_reverse.xlsx
+++ b/app/static/upload/excel_re/re_ori/ori_reverse.xlsx
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" t="n">
         <v>12</v>
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" t="n">
         <v>12</v>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E37" t="n">
         <v>12</v>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E101" t="n">
         <v>12</v>

--- a/app/static/upload/excel_re/re_ori/ori_reverse.xlsx
+++ b/app/static/upload/excel_re/re_ori/ori_reverse.xlsx
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" t="n">
         <v>12</v>
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41" t="n">
         <v>12</v>

--- a/app/static/upload/excel_re/re_ori/ori_reverse.xlsx
+++ b/app/static/upload/excel_re/re_ori/ori_reverse.xlsx
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E37" t="n">
         <v>12</v>
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E41" t="n">
         <v>12</v>
